--- a/data/pca/factorExposure/factorExposure_2012-03-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-23.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01688444504279169</v>
+        <v>-0.01661134449124638</v>
       </c>
       <c r="C2">
-        <v>0.03642685710750591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02905408738691348</v>
+      </c>
+      <c r="D2">
+        <v>0.0001057404866893218</v>
+      </c>
+      <c r="E2">
+        <v>-0.009249839748809727</v>
+      </c>
+      <c r="F2">
+        <v>0.009006295738115143</v>
+      </c>
+      <c r="G2">
+        <v>0.008748654960845516</v>
+      </c>
+      <c r="H2">
+        <v>-0.05810707531294614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0742305388736858</v>
+        <v>-0.08789883434556389</v>
       </c>
       <c r="C4">
-        <v>0.0539999206022298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03815914236030991</v>
+      </c>
+      <c r="D4">
+        <v>-0.06577201045632149</v>
+      </c>
+      <c r="E4">
+        <v>-0.01745801316075727</v>
+      </c>
+      <c r="F4">
+        <v>0.02925527076359985</v>
+      </c>
+      <c r="G4">
+        <v>0.009530145702738531</v>
+      </c>
+      <c r="H4">
+        <v>0.03949393374481119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1081625063633214</v>
+        <v>-0.1196586563905899</v>
       </c>
       <c r="C6">
-        <v>0.05724423599922118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.0342129588900505</v>
+      </c>
+      <c r="D6">
+        <v>-0.008531420204999406</v>
+      </c>
+      <c r="E6">
+        <v>0.004846418607599236</v>
+      </c>
+      <c r="F6">
+        <v>0.05775026262828574</v>
+      </c>
+      <c r="G6">
+        <v>0.02660388017871418</v>
+      </c>
+      <c r="H6">
+        <v>-0.1119819143892602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04900203393210132</v>
+        <v>-0.0642583911755055</v>
       </c>
       <c r="C7">
-        <v>0.02697746679053957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01920202524204231</v>
+      </c>
+      <c r="D7">
+        <v>-0.0458088942567231</v>
+      </c>
+      <c r="E7">
+        <v>-0.04068317750717224</v>
+      </c>
+      <c r="F7">
+        <v>0.03203812081236004</v>
+      </c>
+      <c r="G7">
+        <v>-0.0410963943792647</v>
+      </c>
+      <c r="H7">
+        <v>0.01619300729074958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03710535262038993</v>
+        <v>-0.04064224577675682</v>
       </c>
       <c r="C8">
-        <v>0.01178818610487366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.007253087583603554</v>
+      </c>
+      <c r="D8">
+        <v>-0.02124863174188294</v>
+      </c>
+      <c r="E8">
+        <v>-0.03639811731182353</v>
+      </c>
+      <c r="F8">
+        <v>0.04718940840545348</v>
+      </c>
+      <c r="G8">
+        <v>0.04792876664354645</v>
+      </c>
+      <c r="H8">
+        <v>-0.003005886663994976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06703905870649775</v>
+        <v>-0.07929581129534019</v>
       </c>
       <c r="C9">
-        <v>0.04461089445038763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02959824825920319</v>
+      </c>
+      <c r="D9">
+        <v>-0.06359980915432273</v>
+      </c>
+      <c r="E9">
+        <v>-0.03987777503965004</v>
+      </c>
+      <c r="F9">
+        <v>0.0295511130519988</v>
+      </c>
+      <c r="G9">
+        <v>0.007998819488433409</v>
+      </c>
+      <c r="H9">
+        <v>0.05047492318181244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02837435197721136</v>
+        <v>-0.03459577866334177</v>
       </c>
       <c r="C10">
-        <v>0.03445578577325906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04154542230298029</v>
+      </c>
+      <c r="D10">
+        <v>0.1716606053377861</v>
+      </c>
+      <c r="E10">
+        <v>-0.05127445923645084</v>
+      </c>
+      <c r="F10">
+        <v>0.0435155823320336</v>
+      </c>
+      <c r="G10">
+        <v>-0.04332955565942888</v>
+      </c>
+      <c r="H10">
+        <v>-0.0383591268187814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06993582165944789</v>
+        <v>-0.07645776187267164</v>
       </c>
       <c r="C11">
-        <v>0.047962176104978</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02798979977267849</v>
+      </c>
+      <c r="D11">
+        <v>-0.06238844860723544</v>
+      </c>
+      <c r="E11">
+        <v>-0.0003566371956526124</v>
+      </c>
+      <c r="F11">
+        <v>0.02652299927283785</v>
+      </c>
+      <c r="G11">
+        <v>-0.00492931545226731</v>
+      </c>
+      <c r="H11">
+        <v>0.09602607353832684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05782923716913026</v>
+        <v>-0.06743770775884787</v>
       </c>
       <c r="C12">
-        <v>0.05174556807006796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03593228233508888</v>
+      </c>
+      <c r="D12">
+        <v>-0.04812679599988664</v>
+      </c>
+      <c r="E12">
+        <v>-0.0161766081498026</v>
+      </c>
+      <c r="F12">
+        <v>0.01939933170414693</v>
+      </c>
+      <c r="G12">
+        <v>5.690215454682393e-05</v>
+      </c>
+      <c r="H12">
+        <v>0.05371600247274153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05946037338593336</v>
+        <v>-0.06510766288927605</v>
       </c>
       <c r="C13">
-        <v>0.04110790124190664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02531321148028314</v>
+      </c>
+      <c r="D13">
+        <v>-0.0423341469550759</v>
+      </c>
+      <c r="E13">
+        <v>-0.01442697041330634</v>
+      </c>
+      <c r="F13">
+        <v>0.001004629536769919</v>
+      </c>
+      <c r="G13">
+        <v>-0.008696784038153441</v>
+      </c>
+      <c r="H13">
+        <v>0.04631670275121736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03249306084663563</v>
+        <v>-0.04118678578889072</v>
       </c>
       <c r="C14">
-        <v>0.03255503999217341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02839765285824858</v>
+      </c>
+      <c r="D14">
+        <v>-0.004705658420217557</v>
+      </c>
+      <c r="E14">
+        <v>-0.03317826171844076</v>
+      </c>
+      <c r="F14">
+        <v>0.01034004293948705</v>
+      </c>
+      <c r="G14">
+        <v>0.0106607779280644</v>
+      </c>
+      <c r="H14">
+        <v>0.05537547129837981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03875261078288823</v>
+        <v>-0.03970903819933053</v>
       </c>
       <c r="C15">
-        <v>0.01049700878893817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003024415141231407</v>
+      </c>
+      <c r="D15">
+        <v>-0.003459056966821771</v>
+      </c>
+      <c r="E15">
+        <v>-0.04148631382778664</v>
+      </c>
+      <c r="F15">
+        <v>-0.007269731840427141</v>
+      </c>
+      <c r="G15">
+        <v>0.02683844568797683</v>
+      </c>
+      <c r="H15">
+        <v>0.03631666236956266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06079001511988347</v>
+        <v>-0.0705498880394957</v>
       </c>
       <c r="C16">
-        <v>0.04338234805172247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02802813821008244</v>
+      </c>
+      <c r="D16">
+        <v>-0.06224070646827699</v>
+      </c>
+      <c r="E16">
+        <v>-0.008978102798296125</v>
+      </c>
+      <c r="F16">
+        <v>0.02372885676079201</v>
+      </c>
+      <c r="G16">
+        <v>-0.004213074544704875</v>
+      </c>
+      <c r="H16">
+        <v>0.06094543875272143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06364373723913008</v>
+        <v>-0.06331104234590852</v>
       </c>
       <c r="C20">
-        <v>0.03266704697096264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01384996642598871</v>
+      </c>
+      <c r="D20">
+        <v>-0.03964494691718862</v>
+      </c>
+      <c r="E20">
+        <v>-0.03534148098565399</v>
+      </c>
+      <c r="F20">
+        <v>0.01603738985946885</v>
+      </c>
+      <c r="G20">
+        <v>0.01193141437395242</v>
+      </c>
+      <c r="H20">
+        <v>0.04736089943128906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02324647863948663</v>
+        <v>-0.02455365304846012</v>
       </c>
       <c r="C21">
-        <v>-0.002879355972584886</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.009548418031698215</v>
+      </c>
+      <c r="D21">
+        <v>-0.02752500774372773</v>
+      </c>
+      <c r="E21">
+        <v>-0.0413915202842771</v>
+      </c>
+      <c r="F21">
+        <v>-0.0154540219090886</v>
+      </c>
+      <c r="G21">
+        <v>0.009251712831157726</v>
+      </c>
+      <c r="H21">
+        <v>-0.05017571178206055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07644838719553577</v>
+        <v>-0.07213892432795527</v>
       </c>
       <c r="C22">
-        <v>0.0584408070067573</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03699517319543268</v>
+      </c>
+      <c r="D22">
+        <v>-0.06461110994747385</v>
+      </c>
+      <c r="E22">
+        <v>-0.5583238435404341</v>
+      </c>
+      <c r="F22">
+        <v>-0.2585199605659362</v>
+      </c>
+      <c r="G22">
+        <v>-0.05713413922528693</v>
+      </c>
+      <c r="H22">
+        <v>-0.1675925118372502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0774340631849857</v>
+        <v>-0.07276931008166097</v>
       </c>
       <c r="C23">
-        <v>0.05735562681799456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03568587801320394</v>
+      </c>
+      <c r="D23">
+        <v>-0.0655050116869141</v>
+      </c>
+      <c r="E23">
+        <v>-0.5578174762950393</v>
+      </c>
+      <c r="F23">
+        <v>-0.25710584237797</v>
+      </c>
+      <c r="G23">
+        <v>-0.05548443779031064</v>
+      </c>
+      <c r="H23">
+        <v>-0.1626705843790128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07084809682082455</v>
+        <v>-0.08035664296840883</v>
       </c>
       <c r="C24">
-        <v>0.05189709111833111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03388844474872246</v>
+      </c>
+      <c r="D24">
+        <v>-0.0583265997500454</v>
+      </c>
+      <c r="E24">
+        <v>-0.01993377820031366</v>
+      </c>
+      <c r="F24">
+        <v>0.03383910932876207</v>
+      </c>
+      <c r="G24">
+        <v>0.005400776913698116</v>
+      </c>
+      <c r="H24">
+        <v>0.06726194485422875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07059597378446701</v>
+        <v>-0.07776846483121716</v>
       </c>
       <c r="C25">
-        <v>0.05767696125818668</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03865223363645757</v>
+      </c>
+      <c r="D25">
+        <v>-0.05102491586867592</v>
+      </c>
+      <c r="E25">
+        <v>-0.02246847539446436</v>
+      </c>
+      <c r="F25">
+        <v>0.02594655313644111</v>
+      </c>
+      <c r="G25">
+        <v>0.01774997868621137</v>
+      </c>
+      <c r="H25">
+        <v>0.065673225452545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04452417963568121</v>
+        <v>-0.04757399064098767</v>
       </c>
       <c r="C26">
-        <v>0.01031281372497737</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.002008102864433789</v>
+      </c>
+      <c r="D26">
+        <v>-0.0177066040504663</v>
+      </c>
+      <c r="E26">
+        <v>-0.05331837217048609</v>
+      </c>
+      <c r="F26">
+        <v>0.01798512224211183</v>
+      </c>
+      <c r="G26">
+        <v>-0.007716545539116524</v>
+      </c>
+      <c r="H26">
+        <v>0.05919611080224968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05137011664075285</v>
+        <v>-0.06205219553311767</v>
       </c>
       <c r="C28">
-        <v>0.07456120546018961</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.08264361893859505</v>
+      </c>
+      <c r="D28">
+        <v>0.3079880345391452</v>
+      </c>
+      <c r="E28">
+        <v>-0.02753687279168301</v>
+      </c>
+      <c r="F28">
+        <v>0.05664974264390178</v>
+      </c>
+      <c r="G28">
+        <v>0.02965090220810089</v>
+      </c>
+      <c r="H28">
+        <v>-0.04488281908945147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03967585912604974</v>
+        <v>-0.04814010713345366</v>
       </c>
       <c r="C29">
-        <v>0.03176978923120268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02606888485353137</v>
+      </c>
+      <c r="D29">
+        <v>-0.00465002633196005</v>
+      </c>
+      <c r="E29">
+        <v>-0.05767566846465606</v>
+      </c>
+      <c r="F29">
+        <v>-0.00245030587458501</v>
+      </c>
+      <c r="G29">
+        <v>-0.006797557504073169</v>
+      </c>
+      <c r="H29">
+        <v>0.0822580315780146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1271633152706295</v>
+        <v>-0.1328323513260889</v>
       </c>
       <c r="C30">
-        <v>0.09667590980203562</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06446706617006773</v>
+      </c>
+      <c r="D30">
+        <v>-0.06904286824967987</v>
+      </c>
+      <c r="E30">
+        <v>-0.08404139160674691</v>
+      </c>
+      <c r="F30">
+        <v>-0.02472421254565383</v>
+      </c>
+      <c r="G30">
+        <v>0.07021442237859048</v>
+      </c>
+      <c r="H30">
+        <v>-0.04224022040774402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04231202404319029</v>
+        <v>-0.04885712263633205</v>
       </c>
       <c r="C31">
-        <v>0.02074618327991103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01268534446591367</v>
+      </c>
+      <c r="D31">
+        <v>-0.02448103857646458</v>
+      </c>
+      <c r="E31">
+        <v>-0.03148959209262626</v>
+      </c>
+      <c r="F31">
+        <v>0.00833833931368529</v>
+      </c>
+      <c r="G31">
+        <v>-0.02425301960382532</v>
+      </c>
+      <c r="H31">
+        <v>0.06430528178773776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03557202137740004</v>
+        <v>-0.03759868932035373</v>
       </c>
       <c r="C32">
-        <v>0.02222864772236222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01592426170749299</v>
+      </c>
+      <c r="D32">
+        <v>-0.01211726768592184</v>
+      </c>
+      <c r="E32">
+        <v>-0.06716010542816107</v>
+      </c>
+      <c r="F32">
+        <v>-0.02142907261582731</v>
+      </c>
+      <c r="G32">
+        <v>0.03272516788349909</v>
+      </c>
+      <c r="H32">
+        <v>0.06854668194709752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08194944115860112</v>
+        <v>-0.0954947832932682</v>
       </c>
       <c r="C33">
-        <v>0.04528190532686655</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.02705067568057485</v>
+      </c>
+      <c r="D33">
+        <v>-0.04925635741374187</v>
+      </c>
+      <c r="E33">
+        <v>-0.01543597074469675</v>
+      </c>
+      <c r="F33">
+        <v>0.0003330279056414822</v>
+      </c>
+      <c r="G33">
+        <v>-0.009427296532741273</v>
+      </c>
+      <c r="H33">
+        <v>0.07146937118231983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05613588528963736</v>
+        <v>-0.06220483325220614</v>
       </c>
       <c r="C34">
-        <v>0.02902259020641381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01354591903749305</v>
+      </c>
+      <c r="D34">
+        <v>-0.05353206501139148</v>
+      </c>
+      <c r="E34">
+        <v>-0.01141668379646029</v>
+      </c>
+      <c r="F34">
+        <v>0.01743800861501658</v>
+      </c>
+      <c r="G34">
+        <v>0.005591306122699164</v>
+      </c>
+      <c r="H34">
+        <v>0.05985987026825018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0369976670195667</v>
+        <v>-0.04012635677499751</v>
       </c>
       <c r="C35">
-        <v>0.0088297768315607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002780220865569405</v>
+      </c>
+      <c r="D35">
+        <v>-0.006411166032162697</v>
+      </c>
+      <c r="E35">
+        <v>-0.01697593838777604</v>
+      </c>
+      <c r="F35">
+        <v>-0.01618913375266109</v>
+      </c>
+      <c r="G35">
+        <v>-0.01216204934969194</v>
+      </c>
+      <c r="H35">
+        <v>0.02756984438985716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02049650833156793</v>
+        <v>-0.02729325227891062</v>
       </c>
       <c r="C36">
-        <v>0.0175694147231728</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01369083337831921</v>
+      </c>
+      <c r="D36">
+        <v>-0.01181339468505856</v>
+      </c>
+      <c r="E36">
+        <v>-0.0458710716001705</v>
+      </c>
+      <c r="F36">
+        <v>0.01160793119286859</v>
+      </c>
+      <c r="G36">
+        <v>-0.009547783496686425</v>
+      </c>
+      <c r="H36">
+        <v>0.04479541056986851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0397248433268555</v>
+        <v>-0.04404123937973395</v>
       </c>
       <c r="C38">
-        <v>0.002973281463413428</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002651241591011911</v>
+      </c>
+      <c r="D38">
+        <v>-0.01553872585048399</v>
+      </c>
+      <c r="E38">
+        <v>-0.05437828087292842</v>
+      </c>
+      <c r="F38">
+        <v>-0.01746936034410107</v>
+      </c>
+      <c r="G38">
+        <v>0.01321018954461389</v>
+      </c>
+      <c r="H38">
+        <v>0.02735223867003834</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08930108894011456</v>
+        <v>-0.102391908356036</v>
       </c>
       <c r="C39">
-        <v>0.07211779296638005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.04996285108389662</v>
+      </c>
+      <c r="D39">
+        <v>-0.06560464037237769</v>
+      </c>
+      <c r="E39">
+        <v>-0.001751449120740383</v>
+      </c>
+      <c r="F39">
+        <v>0.006995746071733876</v>
+      </c>
+      <c r="G39">
+        <v>0.03392669107108466</v>
+      </c>
+      <c r="H39">
+        <v>0.06394305724631495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07380668637465479</v>
+        <v>-0.07193266755045595</v>
       </c>
       <c r="C40">
-        <v>0.04022751729865624</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01904947810729497</v>
+      </c>
+      <c r="D40">
+        <v>-0.01081080825031831</v>
+      </c>
+      <c r="E40">
+        <v>-0.01573185754708457</v>
+      </c>
+      <c r="F40">
+        <v>-0.05590516098694112</v>
+      </c>
+      <c r="G40">
+        <v>0.03934448563954342</v>
+      </c>
+      <c r="H40">
+        <v>-0.0947178763151504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04041321431876289</v>
+        <v>-0.04357448046400487</v>
       </c>
       <c r="C41">
-        <v>0.006311889332434653</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.001356152666549489</v>
+      </c>
+      <c r="D41">
+        <v>-0.03454836246888319</v>
+      </c>
+      <c r="E41">
+        <v>-0.003364010205475995</v>
+      </c>
+      <c r="F41">
+        <v>-0.01759423721126932</v>
+      </c>
+      <c r="G41">
+        <v>0.01014560238439874</v>
+      </c>
+      <c r="H41">
+        <v>0.03485501656173439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04691967867813224</v>
+        <v>-0.05763405736192917</v>
       </c>
       <c r="C43">
-        <v>0.02607829046368959</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01726197888015394</v>
+      </c>
+      <c r="D43">
+        <v>-0.02475579684133577</v>
+      </c>
+      <c r="E43">
+        <v>-0.02087114030945165</v>
+      </c>
+      <c r="F43">
+        <v>0.009673713948539145</v>
+      </c>
+      <c r="G43">
+        <v>-0.01456478885535175</v>
+      </c>
+      <c r="H43">
+        <v>0.05552311078001263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09309366578016261</v>
+        <v>-0.09467716024298534</v>
       </c>
       <c r="C44">
-        <v>0.0940413904485867</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06477733605409917</v>
+      </c>
+      <c r="D44">
+        <v>-0.06019411824082144</v>
+      </c>
+      <c r="E44">
+        <v>-0.09720439792719207</v>
+      </c>
+      <c r="F44">
+        <v>0.03357435127702992</v>
+      </c>
+      <c r="G44">
+        <v>0.03108572256177541</v>
+      </c>
+      <c r="H44">
+        <v>0.01302771925077925</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02497741915455842</v>
+        <v>-0.0331969296919442</v>
       </c>
       <c r="C46">
-        <v>0.01436192126788283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01121145106609692</v>
+      </c>
+      <c r="D46">
+        <v>-0.03050328125227384</v>
+      </c>
+      <c r="E46">
+        <v>-0.03209829079836314</v>
+      </c>
+      <c r="F46">
+        <v>0.01325672973895167</v>
+      </c>
+      <c r="G46">
+        <v>0.001319702869663302</v>
+      </c>
+      <c r="H46">
+        <v>0.03659617414312447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03066711276774288</v>
+        <v>-0.03832327702286385</v>
       </c>
       <c r="C47">
-        <v>0.02552952951100943</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01996561771163285</v>
+      </c>
+      <c r="D47">
+        <v>-0.009024118032716275</v>
+      </c>
+      <c r="E47">
+        <v>-0.05139240197169504</v>
+      </c>
+      <c r="F47">
+        <v>0.005937121778956842</v>
+      </c>
+      <c r="G47">
+        <v>-0.03841858237586343</v>
+      </c>
+      <c r="H47">
+        <v>0.0268546692002253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03181868471944607</v>
+        <v>-0.03756008655252165</v>
       </c>
       <c r="C48">
-        <v>0.01655832911146459</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01024425705150452</v>
+      </c>
+      <c r="D48">
+        <v>-0.01859263009930072</v>
+      </c>
+      <c r="E48">
+        <v>-0.04327484554919618</v>
+      </c>
+      <c r="F48">
+        <v>-0.0008149819495161031</v>
+      </c>
+      <c r="G48">
+        <v>0.009913719123497439</v>
+      </c>
+      <c r="H48">
+        <v>0.04408807416225756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1615893909256651</v>
+        <v>-0.1902911787961201</v>
       </c>
       <c r="C49">
-        <v>0.06522793465521089</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.03527975284655552</v>
+      </c>
+      <c r="D49">
+        <v>-0.03226891195729449</v>
+      </c>
+      <c r="E49">
+        <v>0.1422843368638076</v>
+      </c>
+      <c r="F49">
+        <v>0.07447932948162145</v>
+      </c>
+      <c r="G49">
+        <v>-0.06205797783128238</v>
+      </c>
+      <c r="H49">
+        <v>-0.2441827305952786</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03893052486340967</v>
+        <v>-0.04599375182158851</v>
       </c>
       <c r="C50">
-        <v>0.02401742079206843</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01671384840402822</v>
+      </c>
+      <c r="D50">
+        <v>-0.02906597613063129</v>
+      </c>
+      <c r="E50">
+        <v>-0.05435984972192026</v>
+      </c>
+      <c r="F50">
+        <v>0.007773816932829711</v>
+      </c>
+      <c r="G50">
+        <v>-0.02006405551266158</v>
+      </c>
+      <c r="H50">
+        <v>0.06056511914447493</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02539623921874938</v>
+        <v>-0.02987944915668384</v>
       </c>
       <c r="C51">
-        <v>0.007515558910034042</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.00321422276537838</v>
+      </c>
+      <c r="D51">
+        <v>-0.01391679674403384</v>
+      </c>
+      <c r="E51">
+        <v>-0.01746271206107871</v>
+      </c>
+      <c r="F51">
+        <v>0.01873922268699658</v>
+      </c>
+      <c r="G51">
+        <v>-0.0004666988525182329</v>
+      </c>
+      <c r="H51">
+        <v>-0.00810056555005231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1521267967480671</v>
+        <v>-0.1624652773027281</v>
       </c>
       <c r="C53">
-        <v>0.08356570573549192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05369389115244008</v>
+      </c>
+      <c r="D53">
+        <v>-0.01766252251774592</v>
+      </c>
+      <c r="E53">
+        <v>0.02421234064292447</v>
+      </c>
+      <c r="F53">
+        <v>0.0197581836945411</v>
+      </c>
+      <c r="G53">
+        <v>-0.003910232573196525</v>
+      </c>
+      <c r="H53">
+        <v>0.1624638907317617</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05604600778829862</v>
+        <v>-0.05796168398135147</v>
       </c>
       <c r="C54">
-        <v>0.02507341684915274</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01294615237546713</v>
+      </c>
+      <c r="D54">
+        <v>-0.01559894151594257</v>
+      </c>
+      <c r="E54">
+        <v>-0.05318275054566302</v>
+      </c>
+      <c r="F54">
+        <v>0.001080221140806128</v>
+      </c>
+      <c r="G54">
+        <v>0.01003559546653794</v>
+      </c>
+      <c r="H54">
+        <v>0.05117530061036566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1000195318113857</v>
+        <v>-0.1034458245561454</v>
       </c>
       <c r="C55">
-        <v>0.05878944368923852</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.0363617777815114</v>
+      </c>
+      <c r="D55">
+        <v>-0.02358773394638926</v>
+      </c>
+      <c r="E55">
+        <v>-0.02005384105513711</v>
+      </c>
+      <c r="F55">
+        <v>0.01396936231632469</v>
+      </c>
+      <c r="G55">
+        <v>0.004123667003129253</v>
+      </c>
+      <c r="H55">
+        <v>0.1450395144215478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1464583626568789</v>
+        <v>-0.1600649107949405</v>
       </c>
       <c r="C56">
-        <v>0.09535301088437927</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06524800452359802</v>
+      </c>
+      <c r="D56">
+        <v>-0.01994230828897509</v>
+      </c>
+      <c r="E56">
+        <v>0.02207710964095595</v>
+      </c>
+      <c r="F56">
+        <v>0.03795660727183609</v>
+      </c>
+      <c r="G56">
+        <v>-0.01136162168575962</v>
+      </c>
+      <c r="H56">
+        <v>0.1670824831559912</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1224601245923693</v>
+        <v>-0.09798533940465978</v>
       </c>
       <c r="C58">
-        <v>0.007980604870407564</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03381159395259278</v>
+      </c>
+      <c r="D58">
+        <v>-0.03681352532361882</v>
+      </c>
+      <c r="E58">
+        <v>-0.1666768185000131</v>
+      </c>
+      <c r="F58">
+        <v>-0.02193319275840321</v>
+      </c>
+      <c r="G58">
+        <v>-0.06349730443364056</v>
+      </c>
+      <c r="H58">
+        <v>-0.2245894003890953</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1158438098603167</v>
+        <v>-0.1368094724219146</v>
       </c>
       <c r="C59">
-        <v>0.08081541562512687</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08497443753058183</v>
+      </c>
+      <c r="D59">
+        <v>0.3657111318218557</v>
+      </c>
+      <c r="E59">
+        <v>-0.02324257724807119</v>
+      </c>
+      <c r="F59">
+        <v>0.0206402065022138</v>
+      </c>
+      <c r="G59">
+        <v>-0.03501758948001499</v>
+      </c>
+      <c r="H59">
+        <v>0.007866922680952874</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2030927441836833</v>
+        <v>-0.2321945810245119</v>
       </c>
       <c r="C60">
-        <v>0.1084784605381304</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06899361840522783</v>
+      </c>
+      <c r="D60">
+        <v>-0.03756259802011381</v>
+      </c>
+      <c r="E60">
+        <v>0.09135345577475872</v>
+      </c>
+      <c r="F60">
+        <v>0.0772478053742955</v>
+      </c>
+      <c r="G60">
+        <v>0.02144883070688997</v>
+      </c>
+      <c r="H60">
+        <v>-0.1751492156048453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07859783406078537</v>
+        <v>-0.08807673384738945</v>
       </c>
       <c r="C61">
-        <v>0.05141241596897753</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03531203168654452</v>
+      </c>
+      <c r="D61">
+        <v>-0.04309676473704852</v>
+      </c>
+      <c r="E61">
+        <v>-0.0002732407087720734</v>
+      </c>
+      <c r="F61">
+        <v>0.004907573430281981</v>
+      </c>
+      <c r="G61">
+        <v>-0.0001330729506883403</v>
+      </c>
+      <c r="H61">
+        <v>0.07334410038401376</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1277480456079026</v>
+        <v>-0.1390479454600067</v>
       </c>
       <c r="C62">
-        <v>0.06867966262583054</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.04253642433832583</v>
+      </c>
+      <c r="D62">
+        <v>-0.02890945439074582</v>
+      </c>
+      <c r="E62">
+        <v>0.05927588542923657</v>
+      </c>
+      <c r="F62">
+        <v>0.02143777473156967</v>
+      </c>
+      <c r="G62">
+        <v>0.02646219138056013</v>
+      </c>
+      <c r="H62">
+        <v>0.1795523421940194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05033975670643544</v>
+        <v>-0.05044673581348556</v>
       </c>
       <c r="C63">
-        <v>0.02621854014663443</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.0140546312037986</v>
+      </c>
+      <c r="D63">
+        <v>-0.0194489709386197</v>
+      </c>
+      <c r="E63">
+        <v>-0.0526023229005432</v>
+      </c>
+      <c r="F63">
+        <v>-0.01553769365861442</v>
+      </c>
+      <c r="G63">
+        <v>0.02862665629505918</v>
+      </c>
+      <c r="H63">
+        <v>0.05781829442574326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1055106573173448</v>
+        <v>-0.1088014385686604</v>
       </c>
       <c r="C64">
-        <v>0.02650197330776105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.004494273444573242</v>
+      </c>
+      <c r="D64">
+        <v>-0.04003843854702855</v>
+      </c>
+      <c r="E64">
+        <v>-0.04788544764026316</v>
+      </c>
+      <c r="F64">
+        <v>0.04000711166922782</v>
+      </c>
+      <c r="G64">
+        <v>0.04882377386270383</v>
+      </c>
+      <c r="H64">
+        <v>0.05626723097802804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1205109247749942</v>
+        <v>-0.1269948012870366</v>
       </c>
       <c r="C65">
-        <v>0.06366372968913889</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04019583063665867</v>
+      </c>
+      <c r="D65">
+        <v>0.000769975675270295</v>
+      </c>
+      <c r="E65">
+        <v>-0.01242366427591711</v>
+      </c>
+      <c r="F65">
+        <v>0.06097117562475584</v>
+      </c>
+      <c r="G65">
+        <v>0.05408953583722792</v>
+      </c>
+      <c r="H65">
+        <v>-0.1446803973275148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1405952485007497</v>
+        <v>-0.1537969727220795</v>
       </c>
       <c r="C66">
-        <v>0.07715053645448587</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04572148336580927</v>
+      </c>
+      <c r="D66">
+        <v>-0.1014588889933756</v>
+      </c>
+      <c r="E66">
+        <v>0.0263903748241545</v>
+      </c>
+      <c r="F66">
+        <v>0.01867473801615205</v>
+      </c>
+      <c r="G66">
+        <v>0.04265750555651416</v>
+      </c>
+      <c r="H66">
+        <v>0.1437954775005691</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07208372599314547</v>
+        <v>-0.08329814528636353</v>
       </c>
       <c r="C67">
-        <v>0.01451659988632814</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.004052899679296883</v>
+      </c>
+      <c r="D67">
+        <v>-0.02991756745910706</v>
+      </c>
+      <c r="E67">
+        <v>-0.02586937826807553</v>
+      </c>
+      <c r="F67">
+        <v>0.01391556982003124</v>
+      </c>
+      <c r="G67">
+        <v>-0.006304872306698159</v>
+      </c>
+      <c r="H67">
+        <v>0.03028875780262985</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05771726761193886</v>
+        <v>-0.05791279876214471</v>
       </c>
       <c r="C68">
-        <v>0.05173446287015229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05638772582327854</v>
+      </c>
+      <c r="D68">
+        <v>0.2703227729718063</v>
+      </c>
+      <c r="E68">
+        <v>-0.03657311050360193</v>
+      </c>
+      <c r="F68">
+        <v>0.01593152495466233</v>
+      </c>
+      <c r="G68">
+        <v>-0.01530110211807275</v>
+      </c>
+      <c r="H68">
+        <v>0.006489550133684622</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05297786009279697</v>
+        <v>-0.05326411531986409</v>
       </c>
       <c r="C69">
-        <v>0.01891041685495284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.005214360003887883</v>
+      </c>
+      <c r="D69">
+        <v>-0.01588605632102579</v>
+      </c>
+      <c r="E69">
+        <v>-0.02486955645388674</v>
+      </c>
+      <c r="F69">
+        <v>-0.01025280253790918</v>
+      </c>
+      <c r="G69">
+        <v>-0.014513611173613</v>
+      </c>
+      <c r="H69">
+        <v>0.05408372044315377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005651444531009875</v>
+        <v>-0.02632021569242329</v>
       </c>
       <c r="C70">
-        <v>-0.004114501948216213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0007804765035888227</v>
+      </c>
+      <c r="D70">
+        <v>-0.002493421348292762</v>
+      </c>
+      <c r="E70">
+        <v>0.02459559074720705</v>
+      </c>
+      <c r="F70">
+        <v>0.03013413877558118</v>
+      </c>
+      <c r="G70">
+        <v>-0.01972981860380555</v>
+      </c>
+      <c r="H70">
+        <v>-0.04651262871676884</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05699318388607911</v>
+        <v>-0.06002119098678318</v>
       </c>
       <c r="C71">
-        <v>0.05091293356907125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05920277148350304</v>
+      </c>
+      <c r="D71">
+        <v>0.2946316501408142</v>
+      </c>
+      <c r="E71">
+        <v>-0.03423440658594958</v>
+      </c>
+      <c r="F71">
+        <v>0.0417661555571302</v>
+      </c>
+      <c r="G71">
+        <v>-0.004808690325123341</v>
+      </c>
+      <c r="H71">
+        <v>0.0132401554961915</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1383570872828804</v>
+        <v>-0.1477620838896722</v>
       </c>
       <c r="C72">
-        <v>0.06635765278730323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03770065749094595</v>
+      </c>
+      <c r="D72">
+        <v>0.01245085624290126</v>
+      </c>
+      <c r="E72">
+        <v>0.1239672301776424</v>
+      </c>
+      <c r="F72">
+        <v>-0.1500123215655535</v>
+      </c>
+      <c r="G72">
+        <v>0.1140932773242145</v>
+      </c>
+      <c r="H72">
+        <v>0.02613257658500724</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2731426548052321</v>
+        <v>-0.2882119382369177</v>
       </c>
       <c r="C73">
-        <v>0.1170256652120612</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.04790537435515391</v>
+      </c>
+      <c r="D73">
+        <v>-0.1003561453598064</v>
+      </c>
+      <c r="E73">
+        <v>0.2120991327522899</v>
+      </c>
+      <c r="F73">
+        <v>0.1228449008701485</v>
+      </c>
+      <c r="G73">
+        <v>-0.179963547670056</v>
+      </c>
+      <c r="H73">
+        <v>-0.4684289485606003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0794548311316457</v>
+        <v>-0.09220820605508931</v>
       </c>
       <c r="C74">
-        <v>0.07990831749596224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06014816460275708</v>
+      </c>
+      <c r="D74">
+        <v>-0.0320591999000322</v>
+      </c>
+      <c r="E74">
+        <v>0.004576426280250602</v>
+      </c>
+      <c r="F74">
+        <v>-0.007494381521848989</v>
+      </c>
+      <c r="G74">
+        <v>-0.04145899685520294</v>
+      </c>
+      <c r="H74">
+        <v>0.1192751603281524</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09397763846491911</v>
+        <v>-0.0998239433580087</v>
       </c>
       <c r="C75">
-        <v>0.05651325130959929</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02988103376560169</v>
+      </c>
+      <c r="D75">
+        <v>-0.01385870681897528</v>
+      </c>
+      <c r="E75">
+        <v>-0.01133468812866459</v>
+      </c>
+      <c r="F75">
+        <v>0.02769869346442753</v>
+      </c>
+      <c r="G75">
+        <v>-0.01360825154366227</v>
+      </c>
+      <c r="H75">
+        <v>0.112291895228317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1292742632626602</v>
+        <v>-0.1395716212554337</v>
       </c>
       <c r="C76">
-        <v>0.0854994467874189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05632952171074935</v>
+      </c>
+      <c r="D76">
+        <v>-0.05044063688552528</v>
+      </c>
+      <c r="E76">
+        <v>-0.03605897056852713</v>
+      </c>
+      <c r="F76">
+        <v>0.04305150212787348</v>
+      </c>
+      <c r="G76">
+        <v>0.005137527137890099</v>
+      </c>
+      <c r="H76">
+        <v>0.1758079906090589</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1146684265750922</v>
+        <v>-0.1111881963664043</v>
       </c>
       <c r="C77">
-        <v>0.02339525452129648</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.002907690484498987</v>
+      </c>
+      <c r="D77">
+        <v>-0.02060295211139182</v>
+      </c>
+      <c r="E77">
+        <v>-0.0246075806019345</v>
+      </c>
+      <c r="F77">
+        <v>0.1309409899599683</v>
+      </c>
+      <c r="G77">
+        <v>0.8852614327474657</v>
+      </c>
+      <c r="H77">
+        <v>-0.1733119981956889</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09912275475220182</v>
+        <v>-0.1390563650195693</v>
       </c>
       <c r="C78">
-        <v>0.0410815217167246</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03219361012831649</v>
+      </c>
+      <c r="D78">
+        <v>-0.09073431770697898</v>
+      </c>
+      <c r="E78">
+        <v>-0.05701551891752479</v>
+      </c>
+      <c r="F78">
+        <v>0.03097930138519141</v>
+      </c>
+      <c r="G78">
+        <v>0.07121625903257314</v>
+      </c>
+      <c r="H78">
+        <v>-0.04341631022081717</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1463480886642728</v>
+        <v>-0.1519541228815121</v>
       </c>
       <c r="C79">
-        <v>0.08279327235694572</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04650781573953989</v>
+      </c>
+      <c r="D79">
+        <v>-0.02635127370687631</v>
+      </c>
+      <c r="E79">
+        <v>0.01160140814318014</v>
+      </c>
+      <c r="F79">
+        <v>0.01908016452774499</v>
+      </c>
+      <c r="G79">
+        <v>-0.01938137971686772</v>
+      </c>
+      <c r="H79">
+        <v>0.1755881330039981</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04535757727412413</v>
+        <v>-0.04314466722350892</v>
       </c>
       <c r="C80">
-        <v>0.01680189208330677</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006347417337846628</v>
+      </c>
+      <c r="D80">
+        <v>-0.01858888585513973</v>
+      </c>
+      <c r="E80">
+        <v>0.006899365740876465</v>
+      </c>
+      <c r="F80">
+        <v>-0.005190006101547291</v>
+      </c>
+      <c r="G80">
+        <v>-0.03576629663783101</v>
+      </c>
+      <c r="H80">
+        <v>0.04150384317167851</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1150447264249684</v>
+        <v>-0.1199220626208059</v>
       </c>
       <c r="C81">
-        <v>0.06639542687736788</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03736391143386707</v>
+      </c>
+      <c r="D81">
+        <v>-0.02266320777216347</v>
+      </c>
+      <c r="E81">
+        <v>-0.02998979937733441</v>
+      </c>
+      <c r="F81">
+        <v>0.01263663434316062</v>
+      </c>
+      <c r="G81">
+        <v>-0.04591164315616179</v>
+      </c>
+      <c r="H81">
+        <v>0.1470718614002048</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1306955565067082</v>
+        <v>-0.131173324801572</v>
       </c>
       <c r="C82">
-        <v>0.08197671992834638</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05007558031954326</v>
+      </c>
+      <c r="D82">
+        <v>-0.02763882523597855</v>
+      </c>
+      <c r="E82">
+        <v>0.006211530724759929</v>
+      </c>
+      <c r="F82">
+        <v>0.05883799858352003</v>
+      </c>
+      <c r="G82">
+        <v>-0.03177274541304465</v>
+      </c>
+      <c r="H82">
+        <v>0.2024396558950565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07912373953075361</v>
+        <v>-0.08814986883254965</v>
       </c>
       <c r="C83">
-        <v>-0.003515080442007426</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.02068831344959159</v>
+      </c>
+      <c r="D83">
+        <v>-0.03714534268175538</v>
+      </c>
+      <c r="E83">
+        <v>-0.02683867585710678</v>
+      </c>
+      <c r="F83">
+        <v>0.05432474274183298</v>
+      </c>
+      <c r="G83">
+        <v>-0.08442647381417395</v>
+      </c>
+      <c r="H83">
+        <v>-0.05390377314253186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02854527703799403</v>
+        <v>-0.03715943559562595</v>
       </c>
       <c r="C84">
-        <v>0.02534762241657531</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01924894249385495</v>
+      </c>
+      <c r="D84">
+        <v>-0.02983249420061983</v>
+      </c>
+      <c r="E84">
+        <v>-0.01954275684519481</v>
+      </c>
+      <c r="F84">
+        <v>-0.05843763589702716</v>
+      </c>
+      <c r="G84">
+        <v>-0.06711546868817679</v>
+      </c>
+      <c r="H84">
+        <v>0.007495123590082598</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1187832947832323</v>
+        <v>-0.1198975449032519</v>
       </c>
       <c r="C85">
-        <v>0.06361015772577708</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03232068600503732</v>
+      </c>
+      <c r="D85">
+        <v>-0.02397919507815695</v>
+      </c>
+      <c r="E85">
+        <v>-0.02444872101177602</v>
+      </c>
+      <c r="F85">
+        <v>0.03970918733211834</v>
+      </c>
+      <c r="G85">
+        <v>-0.01258453811034369</v>
+      </c>
+      <c r="H85">
+        <v>0.1498563721061891</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04945301912278051</v>
+        <v>-0.05795524717568091</v>
       </c>
       <c r="C86">
-        <v>0.02930399712876097</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01874535239471133</v>
+      </c>
+      <c r="D86">
+        <v>-0.02420083310263305</v>
+      </c>
+      <c r="E86">
+        <v>-0.06609925973421357</v>
+      </c>
+      <c r="F86">
+        <v>0.02192447275190963</v>
+      </c>
+      <c r="G86">
+        <v>-0.01841469651640813</v>
+      </c>
+      <c r="H86">
+        <v>-0.00423714505401635</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1215907990099371</v>
+        <v>-0.1227613595572614</v>
       </c>
       <c r="C87">
-        <v>0.07143077887273012</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03555923401839182</v>
+      </c>
+      <c r="D87">
+        <v>-0.07550091025140869</v>
+      </c>
+      <c r="E87">
+        <v>-0.02119845187128941</v>
+      </c>
+      <c r="F87">
+        <v>-0.006942618936797094</v>
+      </c>
+      <c r="G87">
+        <v>0.111303156914014</v>
+      </c>
+      <c r="H87">
+        <v>-0.03460196135194505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05305792655533598</v>
+        <v>-0.06021016932387787</v>
       </c>
       <c r="C88">
-        <v>0.03023980882048162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01902441669208569</v>
+      </c>
+      <c r="D88">
+        <v>-0.02858613564469828</v>
+      </c>
+      <c r="E88">
+        <v>-0.0218426235649696</v>
+      </c>
+      <c r="F88">
+        <v>0.006385762105390812</v>
+      </c>
+      <c r="G88">
+        <v>0.008172499370969378</v>
+      </c>
+      <c r="H88">
+        <v>0.05223169774858452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07890286483224947</v>
+        <v>-0.0916553744041269</v>
       </c>
       <c r="C89">
-        <v>0.06773777893689986</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07686440262621931</v>
+      </c>
+      <c r="D89">
+        <v>0.3434319471546464</v>
+      </c>
+      <c r="E89">
+        <v>-0.07252475294654688</v>
+      </c>
+      <c r="F89">
+        <v>0.07990780776059914</v>
+      </c>
+      <c r="G89">
+        <v>-0.01799004929063637</v>
+      </c>
+      <c r="H89">
+        <v>0.005647912933761436</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07116744616144087</v>
+        <v>-0.07870370983333602</v>
       </c>
       <c r="C90">
-        <v>0.05999862242985113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06651093853366107</v>
+      </c>
+      <c r="D90">
+        <v>0.3108620993446498</v>
+      </c>
+      <c r="E90">
+        <v>-0.05999937332244848</v>
+      </c>
+      <c r="F90">
+        <v>0.001611571877172781</v>
+      </c>
+      <c r="G90">
+        <v>-0.003476675055493655</v>
+      </c>
+      <c r="H90">
+        <v>0.006761225333461147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08432120445624537</v>
+        <v>-0.08941638800226925</v>
       </c>
       <c r="C91">
-        <v>0.05547067124981595</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.0334636670899739</v>
+      </c>
+      <c r="D91">
+        <v>-0.0306653560529263</v>
+      </c>
+      <c r="E91">
+        <v>-0.01695858859810476</v>
+      </c>
+      <c r="F91">
+        <v>0.003097335920502297</v>
+      </c>
+      <c r="G91">
+        <v>-0.05236273971227502</v>
+      </c>
+      <c r="H91">
+        <v>0.0785154712635411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07257861955517689</v>
+        <v>-0.07974664637309559</v>
       </c>
       <c r="C92">
-        <v>0.07348294397538598</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.0800598755289238</v>
+      </c>
+      <c r="D92">
+        <v>0.342234915340036</v>
+      </c>
+      <c r="E92">
+        <v>-0.04620250317644644</v>
+      </c>
+      <c r="F92">
+        <v>0.03964549414022189</v>
+      </c>
+      <c r="G92">
+        <v>0.007165757460278302</v>
+      </c>
+      <c r="H92">
+        <v>0.02669101719992425</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06450194078176281</v>
+        <v>-0.07676531970683401</v>
       </c>
       <c r="C93">
-        <v>0.06611049482223461</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07796355791039</v>
+      </c>
+      <c r="D93">
+        <v>0.3078258629526997</v>
+      </c>
+      <c r="E93">
+        <v>-0.03821694261451783</v>
+      </c>
+      <c r="F93">
+        <v>0.03971436489220749</v>
+      </c>
+      <c r="G93">
+        <v>0.01005753615659278</v>
+      </c>
+      <c r="H93">
+        <v>-0.009929128431593486</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1324166633620637</v>
+        <v>-0.1265588133401215</v>
       </c>
       <c r="C94">
-        <v>0.06070290951359624</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02299184168864757</v>
+      </c>
+      <c r="D94">
+        <v>-0.04755870894392201</v>
+      </c>
+      <c r="E94">
+        <v>0.001098238767627473</v>
+      </c>
+      <c r="F94">
+        <v>0.02060321806915092</v>
+      </c>
+      <c r="G94">
+        <v>-0.05117701761958373</v>
+      </c>
+      <c r="H94">
+        <v>0.09846539300592819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1195869600483607</v>
+        <v>-0.129062072077137</v>
       </c>
       <c r="C95">
-        <v>0.03675182598795927</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.0086327072344427</v>
+      </c>
+      <c r="D95">
+        <v>-0.06182052378085529</v>
+      </c>
+      <c r="E95">
+        <v>-0.01368456379219188</v>
+      </c>
+      <c r="F95">
+        <v>0.0461283338011956</v>
+      </c>
+      <c r="G95">
+        <v>-0.01276832735163372</v>
+      </c>
+      <c r="H95">
+        <v>-0.03035526251621696</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2024790634468032</v>
+        <v>-0.2091856243187383</v>
       </c>
       <c r="C97">
-        <v>0.04512563397747545</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.004722709248300093</v>
+      </c>
+      <c r="D97">
+        <v>0.09451501495838523</v>
+      </c>
+      <c r="E97">
+        <v>0.3491006942914269</v>
+      </c>
+      <c r="F97">
+        <v>-0.8512887284402444</v>
+      </c>
+      <c r="G97">
+        <v>0.09082379931946824</v>
+      </c>
+      <c r="H97">
+        <v>0.009667567688340558</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2432617601290084</v>
+        <v>-0.2751059200849818</v>
       </c>
       <c r="C98">
-        <v>0.08034594288591956</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03490819424482941</v>
+      </c>
+      <c r="D98">
+        <v>-0.06005246996877148</v>
+      </c>
+      <c r="E98">
+        <v>0.1646743140191519</v>
+      </c>
+      <c r="F98">
+        <v>0.08955261941068668</v>
+      </c>
+      <c r="G98">
+        <v>-0.2682699469871331</v>
+      </c>
+      <c r="H98">
+        <v>-0.2314934696480666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4648172301711276</v>
+        <v>-0.2842018698928899</v>
       </c>
       <c r="C99">
-        <v>-0.869776377822515</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9362681954450605</v>
+      </c>
+      <c r="D99">
+        <v>0.1270136587999104</v>
+      </c>
+      <c r="E99">
+        <v>-0.06440933647691982</v>
+      </c>
+      <c r="F99">
+        <v>0.04329203334497988</v>
+      </c>
+      <c r="G99">
+        <v>-0.01253912434974297</v>
+      </c>
+      <c r="H99">
+        <v>0.06572592327587647</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03973797930520671</v>
+        <v>-0.04823879927781542</v>
       </c>
       <c r="C101">
-        <v>0.03175369772576499</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.0261559373073381</v>
+      </c>
+      <c r="D101">
+        <v>-0.005188178816411345</v>
+      </c>
+      <c r="E101">
+        <v>-0.05671393420017877</v>
+      </c>
+      <c r="F101">
+        <v>-0.002862436568388913</v>
+      </c>
+      <c r="G101">
+        <v>-0.006919994914930421</v>
+      </c>
+      <c r="H101">
+        <v>0.08157005819868533</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
